--- a/XML_Schema/GameSystemSettingExcel.xlsx
+++ b/XML_Schema/GameSystemSettingExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>게임시스템이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>타일이펙트시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴창등장시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:B4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:B5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" uniqueName="Name" name="게임시스템이름">
       <xmlColumnPr mapId="1" xpath="/GameSystemList/System/@Name" xmlDataType="string"/>
@@ -429,9 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -469,6 +479,14 @@
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
